--- a/docs/leadas_02/objektumok_abcben.xlsx
+++ b/docs/leadas_02/objektumok_abcben.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projlab\Space-Miner\docs\leadas_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7294CB61-6A3C-4C9A-AE93-9CCDD0A62B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834040C6-C354-4CCD-BD93-6E45A0156893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="4335" windowWidth="18795" windowHeight="11385" xr2:uid="{CAAC6BC2-8672-49B7-ADC5-892C6C02380D}"/>
+    <workbookView xWindow="5520" yWindow="1350" windowWidth="18795" windowHeight="11385" xr2:uid="{CAAC6BC2-8672-49B7-ADC5-892C6C02380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Játék</t>
   </si>
@@ -81,6 +81,57 @@
   </si>
   <si>
     <t>Urán</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Buildable</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Controllable</t>
+  </si>
+  <si>
+    <t>Settler</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Asteroid</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Uran</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Coal</t>
   </si>
 </sst>
 </file>
@@ -433,97 +484,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28CC90-B1C7-413E-AA55-1BE724332E04}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A16">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C18">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/leadas_02/objektumok_abcben.xlsx
+++ b/docs/leadas_02/objektumok_abcben.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projlab\Space-Miner\docs\leadas_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834040C6-C354-4CCD-BD93-6E45A0156893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7294CB61-6A3C-4C9A-AE93-9CCDD0A62B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1350" windowWidth="18795" windowHeight="11385" xr2:uid="{CAAC6BC2-8672-49B7-ADC5-892C6C02380D}"/>
+    <workbookView xWindow="5325" yWindow="4335" windowWidth="18795" windowHeight="11385" xr2:uid="{CAAC6BC2-8672-49B7-ADC5-892C6C02380D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Játék</t>
   </si>
@@ -81,57 +81,6 @@
   </si>
   <si>
     <t>Urán</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Buildable</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Controllable</t>
-  </si>
-  <si>
-    <t>Settler</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Asteroid</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Uran</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Coal</t>
   </si>
 </sst>
 </file>
@@ -484,155 +433,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28CC90-B1C7-413E-AA55-1BE724332E04}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C1:C18">
-    <sortCondition ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A16">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
